--- a/registros.xlsx
+++ b/registros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gertec-Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183695E0-647E-4518-B7BC-EEC11C19070E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408714AA-5FAF-413F-BD33-ECF119FC6768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="122" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
